--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.2/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.2/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1082">
   <si>
     <t>anchor score</t>
   </si>
@@ -505,448 +505,448 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>economic</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>economic</t>
-  </si>
-  <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>kids</t>
   </si>
   <si>
     <t>best</t>
@@ -3628,7 +3628,7 @@
         <v>110</v>
       </c>
       <c r="J1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3686,7 +3686,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02725954531132449</v>
+        <v>0.02759896047316655</v>
       </c>
       <c r="C3">
         <v>192</v>
@@ -3707,28 +3707,28 @@
         <v>100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>168</v>
+        <v>309</v>
       </c>
       <c r="K3">
-        <v>0.00437483623660316</v>
+        <v>0.007052158160226116</v>
       </c>
       <c r="L3">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="M3">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3736,7 +3736,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02425435820031707</v>
+        <v>0.0245563550538932</v>
       </c>
       <c r="C4">
         <v>152</v>
@@ -3757,28 +3757,28 @@
         <v>364</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>83</v>
+        <v>310</v>
       </c>
       <c r="K4">
-        <v>0.00424692216706332</v>
+        <v>0.006465046644309083</v>
       </c>
       <c r="L4">
-        <v>434</v>
+        <v>158</v>
       </c>
       <c r="M4">
-        <v>447</v>
+        <v>158</v>
       </c>
       <c r="N4">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2754</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3786,7 +3786,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01112866277217044</v>
+        <v>0.01126722843174997</v>
       </c>
       <c r="C5">
         <v>32</v>
@@ -3807,28 +3807,28 @@
         <v>43</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="K5">
-        <v>0.004244711791745468</v>
+        <v>0.00437483623660316</v>
       </c>
       <c r="L5">
-        <v>622</v>
+        <v>220</v>
       </c>
       <c r="M5">
-        <v>650</v>
+        <v>222</v>
       </c>
       <c r="N5">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>2457</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3836,7 +3836,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009836441139674999</v>
+        <v>0.009958917036585345</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -3857,28 +3857,28 @@
         <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>311</v>
+        <v>83</v>
       </c>
       <c r="K6">
-        <v>0.00363687287921727</v>
+        <v>0.00424692216706332</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>434</v>
       </c>
       <c r="M6">
-        <v>50</v>
+        <v>447</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3886,7 +3886,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.00922739970842143</v>
+        <v>0.009342292283834789</v>
       </c>
       <c r="C7">
         <v>22</v>
@@ -3907,28 +3907,28 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>312</v>
+        <v>66</v>
       </c>
       <c r="K7">
-        <v>0.003488365920086255</v>
+        <v>0.004244711791745468</v>
       </c>
       <c r="L7">
-        <v>46</v>
+        <v>622</v>
       </c>
       <c r="M7">
-        <v>46</v>
+        <v>650</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>184</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3936,7 +3936,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008575210578385875</v>
+        <v>0.008681982589916216</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -3957,28 +3957,28 @@
         <v>130</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>182</v>
+        <v>311</v>
       </c>
       <c r="K8">
-        <v>0.003051986797547218</v>
+        <v>0.00363687287921727</v>
       </c>
       <c r="L8">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="N8">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3986,7 +3986,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.007360918529966409</v>
+        <v>0.007452571098841681</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -4007,28 +4007,28 @@
         <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>84</v>
+        <v>312</v>
       </c>
       <c r="K9">
-        <v>0.003036268041799856</v>
+        <v>0.003488365920086255</v>
       </c>
       <c r="L9">
-        <v>414</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>438</v>
+        <v>46</v>
       </c>
       <c r="N9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1705</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4036,7 +4036,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.007093158579436329</v>
+        <v>0.007181477204700068</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -4057,28 +4057,28 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>313</v>
+        <v>180</v>
       </c>
       <c r="K10">
-        <v>0.002999042205591405</v>
+        <v>0.003051986797547218</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>103</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4086,7 +4086,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.007093158579436329</v>
+        <v>0.007181477204700068</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -4107,28 +4107,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>314</v>
+        <v>84</v>
       </c>
       <c r="K11">
-        <v>0.002999042205591405</v>
+        <v>0.003036268041799856</v>
       </c>
       <c r="L11">
-        <v>34</v>
+        <v>414</v>
       </c>
       <c r="M11">
-        <v>34</v>
+        <v>438</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>81</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4136,7 +4136,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006814886327831123</v>
+        <v>0.006899740118291638</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -4157,16 +4157,16 @@
         <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K12">
-        <v>0.002954609494354006</v>
+        <v>0.002999042205591405</v>
       </c>
       <c r="L12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4186,7 +4186,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006814886327831123</v>
+        <v>0.006899740118291638</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -4207,16 +4207,16 @@
         <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K13">
-        <v>0.002954609494354006</v>
+        <v>0.002999042205591405</v>
       </c>
       <c r="L13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>234</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4236,7 +4236,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006814886327831123</v>
+        <v>0.006899740118291638</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -4257,16 +4257,16 @@
         <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K14">
-        <v>0.002909498303373816</v>
+        <v>0.002954609494354006</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4286,7 +4286,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006524756906543565</v>
+        <v>0.006605998225726338</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -4307,28 +4307,28 @@
         <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>161</v>
+        <v>316</v>
       </c>
       <c r="K15">
-        <v>0.002894200320255749</v>
+        <v>0.002954609494354006</v>
       </c>
       <c r="L15">
-        <v>201</v>
+        <v>33</v>
       </c>
       <c r="M15">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="N15">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>687</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4336,7 +4336,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006221111614311089</v>
+        <v>0.006298572172852823</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -4357,28 +4357,28 @@
         <v>70</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>183</v>
+        <v>317</v>
       </c>
       <c r="K16">
-        <v>0.002882843526919766</v>
+        <v>0.002909498303373816</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="N16">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4386,7 +4386,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006221111614311089</v>
+        <v>0.006298572172852823</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -4407,28 +4407,28 @@
         <v>41</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="K17">
-        <v>0.002872485913277387</v>
+        <v>0.002894200320255749</v>
       </c>
       <c r="L17">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="M17">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="N17">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O17">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>357</v>
+        <v>687</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4436,7 +4436,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006221111614311089</v>
+        <v>0.006298572172852823</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -4457,28 +4457,28 @@
         <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>318</v>
+        <v>181</v>
       </c>
       <c r="K18">
-        <v>0.002863676568773679</v>
+        <v>0.002882843526919766</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>112</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4486,7 +4486,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.005901864683804999</v>
+        <v>0.005975350221951206</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -4507,28 +4507,28 @@
         <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>319</v>
+        <v>172</v>
       </c>
       <c r="K19">
-        <v>0.002863676568773679</v>
+        <v>0.002872485913277387</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>275</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4536,7 +4536,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005901864683804999</v>
+        <v>0.005975350221951206</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -4557,16 +4557,16 @@
         <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K20">
-        <v>0.002817109618696381</v>
+        <v>0.002863676568773679</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4578,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4586,7 +4586,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005901864683804999</v>
+        <v>0.005975350221951206</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -4607,16 +4607,16 @@
         <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K21">
-        <v>0.002769759866298872</v>
+        <v>0.002863676568773679</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>62</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4636,7 +4636,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005901864683804999</v>
+        <v>0.005975350221951206</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -4657,28 +4657,28 @@
         <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>162</v>
+        <v>320</v>
       </c>
       <c r="K22">
-        <v>0.002498080425450144</v>
+        <v>0.002817109618696381</v>
       </c>
       <c r="L22">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="N22">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>710</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4686,7 +4686,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005901864683804999</v>
+        <v>0.005975350221951206</v>
       </c>
       <c r="C23">
         <v>9</v>
@@ -4707,16 +4707,16 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K23">
-        <v>0.002412428550116644</v>
+        <v>0.002769759866298872</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4736,7 +4736,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005901864683804999</v>
+        <v>0.005975350221951206</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -4757,28 +4757,28 @@
         <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>323</v>
+        <v>162</v>
       </c>
       <c r="K24">
-        <v>0.002412428550116644</v>
+        <v>0.002498080425450144</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>94</v>
+        <v>710</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4786,7 +4786,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005901864683804999</v>
+        <v>0.005975350221951206</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -4807,28 +4807,28 @@
         <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>170</v>
+        <v>322</v>
       </c>
       <c r="K25">
-        <v>0.002394144699165058</v>
+        <v>0.002412428550116644</v>
       </c>
       <c r="L25">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="N25">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4836,7 +4836,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005564331386085219</v>
+        <v>0.005633614215874987</v>
       </c>
       <c r="C26">
         <v>8</v>
@@ -4857,16 +4857,16 @@
         <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K26">
-        <v>0.002356963008327914</v>
+        <v>0.002412428550116644</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4886,7 +4886,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005564331386085219</v>
+        <v>0.005633614215874987</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -4907,28 +4907,28 @@
         <v>23</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>325</v>
+        <v>168</v>
       </c>
       <c r="K27">
-        <v>0.002356963008327914</v>
+        <v>0.002394144699165058</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4936,7 +4936,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005564331386085219</v>
+        <v>0.005633614215874987</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -4957,25 +4957,25 @@
         <v>7</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>177</v>
+        <v>324</v>
       </c>
       <c r="K28">
-        <v>0.002264177265423954</v>
+        <v>0.002356963008327914</v>
       </c>
       <c r="L28">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="N28">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>15</v>
@@ -4986,7 +4986,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005564331386085219</v>
+        <v>0.005633614215874987</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -5007,28 +5007,28 @@
         <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>165</v>
+        <v>325</v>
       </c>
       <c r="K29">
-        <v>0.002260873544467207</v>
+        <v>0.002356963008327914</v>
       </c>
       <c r="L29">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="N29">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>135</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -5036,7 +5036,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005564331386085219</v>
+        <v>0.005633614215874987</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -5057,28 +5057,28 @@
         <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="K30">
-        <v>0.002241919010366504</v>
+        <v>0.002264177265423954</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -5086,7 +5086,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005204955408300961</v>
+        <v>0.005269763561265833</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -5107,28 +5107,28 @@
         <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="K31">
-        <v>0.00221891539317944</v>
+        <v>0.002260873544467207</v>
       </c>
       <c r="L31">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="M31">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="N31">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O31">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>87</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5136,7 +5136,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005204955408300961</v>
+        <v>0.005269763561265833</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -5157,28 +5157,28 @@
         <v>12</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>173</v>
+        <v>326</v>
       </c>
       <c r="K32">
-        <v>0.00218254562055764</v>
+        <v>0.002241919010366504</v>
       </c>
       <c r="L32">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>456</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5186,7 +5186,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005204955408300961</v>
+        <v>0.005269763561265833</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -5207,28 +5207,28 @@
         <v>29</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>327</v>
+        <v>184</v>
       </c>
       <c r="K33">
-        <v>0.002182123727530362</v>
+        <v>0.00221891539317944</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5236,7 +5236,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005204955408300961</v>
+        <v>0.005269763561265833</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -5257,28 +5257,28 @@
         <v>6</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="K34">
-        <v>0.002169600852872531</v>
+        <v>0.00218254562055764</v>
       </c>
       <c r="L34">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="M34">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="N34">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>238</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5286,7 +5286,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005204955408300961</v>
+        <v>0.005269763561265833</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -5307,28 +5307,28 @@
         <v>13</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>164</v>
+        <v>327</v>
       </c>
       <c r="K35">
-        <v>0.0021559995060458</v>
+        <v>0.002182123727530362</v>
       </c>
       <c r="L35">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="N35">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5336,7 +5336,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005204955408300961</v>
+        <v>0.005269763561265833</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -5357,28 +5357,28 @@
         <v>15</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>328</v>
+        <v>186</v>
       </c>
       <c r="K36">
-        <v>0.002120643080638343</v>
+        <v>0.002169600852872531</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>42</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5386,7 +5386,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004818852335424876</v>
+        <v>0.004878853026068889</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -5407,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K37">
         <v>0.002120643080638343</v>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5436,7 +5436,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004818852335424876</v>
+        <v>0.004878853026068889</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -5457,28 +5457,28 @@
         <v>24</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>175</v>
+        <v>329</v>
       </c>
       <c r="K38">
-        <v>0.002092194779741837</v>
+        <v>0.002120643080638343</v>
       </c>
       <c r="L38">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="N38">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5486,7 +5486,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004818852335424876</v>
+        <v>0.004878853026068889</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -5507,28 +5507,28 @@
         <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>330</v>
+        <v>173</v>
       </c>
       <c r="K39">
-        <v>0.00205732598016638</v>
+        <v>0.002092194779741837</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5536,7 +5536,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004818852335424876</v>
+        <v>0.004878853026068889</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -5557,16 +5557,16 @@
         <v>31</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K40">
-        <v>0.00199199731472606</v>
+        <v>0.00205732598016638</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5586,7 +5586,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004818852335424876</v>
+        <v>0.004878853026068889</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -5607,7 +5607,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K41">
         <v>0.00199199731472606</v>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5636,7 +5636,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004818852335424876</v>
+        <v>0.004878853026068889</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -5657,7 +5657,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K42">
         <v>0.00199199731472606</v>
@@ -5678,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5686,7 +5686,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004818852335424876</v>
+        <v>0.004878853026068889</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -5707,7 +5707,7 @@
         <v>4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K43">
         <v>0.00199199731472606</v>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>215</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5736,7 +5736,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004818852335424876</v>
+        <v>0.004878853026068889</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -5757,7 +5757,7 @@
         <v>34</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K44">
         <v>0.00199199731472606</v>
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>122</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5786,7 +5786,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004818852335424876</v>
+        <v>0.004878853026068889</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5807,7 +5807,7 @@
         <v>4</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K45">
         <v>0.00199199731472606</v>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5836,7 +5836,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004818852335424876</v>
+        <v>0.004878853026068889</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -5857,28 +5857,28 @@
         <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="K46">
-        <v>0.001938261164406545</v>
+        <v>0.00199199731472606</v>
       </c>
       <c r="L46">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="N46">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>718</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5886,7 +5886,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004818852335424876</v>
+        <v>0.004878853026068889</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -5907,28 +5907,28 @@
         <v>25</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>337</v>
+        <v>164</v>
       </c>
       <c r="K47">
-        <v>0.001924452237672869</v>
+        <v>0.001938261164406545</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>58</v>
+        <v>718</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5936,7 +5936,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.00439899020899776</v>
+        <v>0.004453763095217118</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -5957,7 +5957,7 @@
         <v>2</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K48">
         <v>0.001924452237672869</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5986,7 +5986,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.00439899020899776</v>
+        <v>0.004453763095217118</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -6007,7 +6007,7 @@
         <v>4</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K49">
         <v>0.001924452237672869</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -6036,7 +6036,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.00439899020899776</v>
+        <v>0.004453763095217118</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -6057,7 +6057,7 @@
         <v>27</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K50">
         <v>0.001924452237672869</v>
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -6086,7 +6086,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.00439899020899776</v>
+        <v>0.004453763095217118</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -6107,7 +6107,7 @@
         <v>10</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K51">
         <v>0.001924452237672869</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -6136,7 +6136,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003934576455869999</v>
+        <v>0.003983566814634138</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -6157,7 +6157,7 @@
         <v>26</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K52">
         <v>0.001924452237672869</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -6186,7 +6186,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003934576455869999</v>
+        <v>0.003983566814634138</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -6207,28 +6207,28 @@
         <v>3</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>167</v>
+        <v>342</v>
       </c>
       <c r="K53">
-        <v>0.00185508954436575</v>
+        <v>0.001924452237672869</v>
       </c>
       <c r="L53">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="M53">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="N53">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>275</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -6236,7 +6236,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003934576455869999</v>
+        <v>0.003983566814634138</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -6257,28 +6257,28 @@
         <v>22</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>343</v>
+        <v>165</v>
       </c>
       <c r="K54">
-        <v>0.001854448577958524</v>
+        <v>0.00185508954436575</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>100</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -6286,7 +6286,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.003934576455869999</v>
+        <v>0.003983566814634138</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -6307,7 +6307,7 @@
         <v>34</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K55">
         <v>0.001854448577958524</v>
@@ -6328,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>287</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -6336,7 +6336,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003934576455869999</v>
+        <v>0.003983566814634138</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -6357,28 +6357,28 @@
         <v>24</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>163</v>
+        <v>344</v>
       </c>
       <c r="K56">
-        <v>0.001847326068685212</v>
+        <v>0.001854448577958524</v>
       </c>
       <c r="L56">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="N56">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>139</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -6386,7 +6386,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003934576455869999</v>
+        <v>0.003983566814634138</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -6436,7 +6436,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003934576455869999</v>
+        <v>0.003983566814634138</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -6457,7 +6457,7 @@
         <v>15</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K58">
         <v>0.001728451000579375</v>
@@ -6486,7 +6486,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003934576455869999</v>
+        <v>0.003983566814634138</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -6536,7 +6536,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003934576455869999</v>
+        <v>0.003983566814634138</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -6586,7 +6586,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.00344474362561639</v>
+        <v>0.003487634957875966</v>
       </c>
       <c r="C61">
         <v>28</v>
@@ -6636,7 +6636,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003407443163915562</v>
+        <v>0.003449870059145819</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -6686,7 +6686,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003407443163915562</v>
+        <v>0.003449870059145819</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -6736,7 +6736,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003407443163915562</v>
+        <v>0.003449870059145819</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -6786,7 +6786,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003407443163915562</v>
+        <v>0.003449870059145819</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -6836,7 +6836,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003407443163915562</v>
+        <v>0.003449870059145819</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -6886,7 +6886,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003407443163915562</v>
+        <v>0.003449870059145819</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -6936,7 +6936,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003407443163915562</v>
+        <v>0.003449870059145819</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6986,7 +6986,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003407443163915562</v>
+        <v>0.003449870059145819</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -7036,7 +7036,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003407443163915562</v>
+        <v>0.003449870059145819</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -7057,7 +7057,7 @@
         <v>5</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K70">
         <v>0.001633160023365632</v>
@@ -7086,7 +7086,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003407443163915562</v>
+        <v>0.003449870059145819</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -7136,7 +7136,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003407443163915562</v>
+        <v>0.003449870059145819</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -7186,7 +7186,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003407443163915562</v>
+        <v>0.003449870059145819</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -7236,7 +7236,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003407443163915562</v>
+        <v>0.003449870059145819</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -7286,7 +7286,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003407443163915562</v>
+        <v>0.003449870059145819</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -7336,7 +7336,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003407443163915562</v>
+        <v>0.003449870059145819</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -7386,7 +7386,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003407443163915562</v>
+        <v>0.003449870059145819</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -7436,7 +7436,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002811421665271089</v>
+        <v>0.002846427353320033</v>
       </c>
       <c r="C78">
         <v>13</v>
@@ -7457,7 +7457,7 @@
         <v>2754</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K78">
         <v>0.001603095794428105</v>
@@ -7486,7 +7486,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.00279621417389251</v>
+        <v>0.002831030509804853</v>
       </c>
       <c r="C79">
         <v>24</v>
@@ -7507,7 +7507,7 @@
         <v>1705</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K79">
         <v>0.001578817540979897</v>
@@ -7536,7 +7536,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002782165693042609</v>
+        <v>0.002816807107937494</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7586,7 +7586,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002782165693042609</v>
+        <v>0.002816807107937494</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7636,7 +7636,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002782165693042609</v>
+        <v>0.002816807107937494</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7686,7 +7686,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002782165693042609</v>
+        <v>0.002816807107937494</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7736,7 +7736,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002782165693042609</v>
+        <v>0.002816807107937494</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7786,7 +7786,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002782165693042609</v>
+        <v>0.002816807107937494</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7836,7 +7836,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002782165693042609</v>
+        <v>0.002816807107937494</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7886,7 +7886,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002782165693042609</v>
+        <v>0.002816807107937494</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -7936,7 +7936,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002782165693042609</v>
+        <v>0.002816807107937494</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -7986,7 +7986,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002782165693042609</v>
+        <v>0.002816807107937494</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -8036,7 +8036,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002782165693042609</v>
+        <v>0.002816807107937494</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -8086,7 +8086,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002782165693042609</v>
+        <v>0.002816807107937494</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -8136,7 +8136,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002782165693042609</v>
+        <v>0.002816807107937494</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -8186,7 +8186,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002782165693042609</v>
+        <v>0.002816807107937494</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -8236,7 +8236,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002782165693042609</v>
+        <v>0.002816807107937494</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -8286,7 +8286,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002782165693042609</v>
+        <v>0.002816807107937494</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -8336,7 +8336,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002782165693042609</v>
+        <v>0.002816807107937494</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -8386,7 +8386,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002782165693042609</v>
+        <v>0.002816807107937494</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -8436,7 +8436,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002782165693042609</v>
+        <v>0.002816807107937494</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -8486,7 +8486,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002782165693042609</v>
+        <v>0.002816807107937494</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -8536,7 +8536,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8586,7 +8586,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8636,7 +8636,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8686,7 +8686,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8736,7 +8736,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8786,7 +8786,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8836,7 +8836,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8886,7 +8886,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8936,7 +8936,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8986,7 +8986,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -9036,7 +9036,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9136,7 +9136,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9186,7 +9186,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9236,7 +9236,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9286,7 +9286,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9336,7 +9336,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9386,7 +9386,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9436,7 +9436,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9486,7 +9486,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9536,7 +9536,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9557,7 +9557,7 @@
         <v>17</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K120">
         <v>0.001354075120688844</v>
@@ -9586,7 +9586,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9607,7 +9607,7 @@
         <v>10</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K121">
         <v>0.001345606656010451</v>
@@ -9636,7 +9636,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9657,7 +9657,7 @@
         <v>5</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K122">
         <v>0.001321475030230138</v>
@@ -9686,7 +9686,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9707,7 +9707,7 @@
         <v>13</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K123">
         <v>0.001297214791671864</v>
@@ -9736,7 +9736,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9757,7 +9757,7 @@
         <v>10</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K124">
         <v>0.001296075174854362</v>
@@ -9786,7 +9786,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9836,7 +9836,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9886,7 +9886,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9936,7 +9936,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9986,7 +9986,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -10036,7 +10036,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -10086,7 +10086,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -10136,7 +10136,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10186,7 +10186,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10236,7 +10236,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10286,7 +10286,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10336,7 +10336,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10386,7 +10386,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10436,7 +10436,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10457,7 +10457,7 @@
         <v>50</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K138">
         <v>0.00116562920924269</v>
@@ -10486,7 +10486,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10536,7 +10536,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10586,7 +10586,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10636,7 +10636,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10686,7 +10686,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10736,7 +10736,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10786,7 +10786,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10836,7 +10836,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10886,7 +10886,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10936,7 +10936,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10986,7 +10986,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -11036,7 +11036,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -11086,7 +11086,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -11136,7 +11136,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -11186,7 +11186,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -11236,7 +11236,7 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -11286,7 +11286,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001967288227935</v>
+        <v>0.001991783407317069</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -11336,7 +11336,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001912630415285642</v>
+        <v>0.001936445037082673</v>
       </c>
       <c r="C156">
         <v>6</v>
@@ -11386,7 +11386,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0018636802329063</v>
+        <v>0.001886885364196988</v>
       </c>
       <c r="C157">
         <v>7</v>
@@ -11436,25 +11436,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001858066205465073</v>
+        <v>0.001728186179792768</v>
       </c>
       <c r="C158">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D158">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="E158">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F158">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>436</v>
@@ -11486,25 +11486,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001735777312475457</v>
+        <v>0.00166654150054841</v>
       </c>
       <c r="C159">
         <v>7</v>
       </c>
       <c r="D159">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E159">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F159">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>74</v>
+        <v>718</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>437</v>
@@ -11536,25 +11536,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001706932749161644</v>
+        <v>0.001629834229334574</v>
       </c>
       <c r="C160">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D160">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E160">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F160">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>135</v>
+        <v>275</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>438</v>
@@ -11586,25 +11586,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.00164604618320937</v>
+        <v>0.001615341865959894</v>
       </c>
       <c r="C161">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="E161">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F161">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>718</v>
+        <v>161</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>439</v>
@@ -11636,13 +11636,13 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001609790342201101</v>
+        <v>0.001470421578890885</v>
       </c>
       <c r="C162">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D162">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E162">
         <v>0.95</v>
@@ -11654,7 +11654,7 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>275</v>
+        <v>533</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>440</v>
@@ -11686,25 +11686,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001595476207563154</v>
+        <v>0.001465950785176455</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D163">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="E163">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F163">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>441</v>
@@ -11736,25 +11736,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001452338166703656</v>
+        <v>0.001447386502304068</v>
       </c>
       <c r="C164">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D164">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="E164">
-        <v>0.95</v>
+        <v>0.08</v>
       </c>
       <c r="F164">
-        <v>0.05000000000000004</v>
+        <v>0.92</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>533</v>
+        <v>43</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>442</v>
@@ -11786,25 +11786,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001447922355319942</v>
+        <v>0.001446935515554454</v>
       </c>
       <c r="C165">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D165">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E165">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F165">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>37</v>
+        <v>1049</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>443</v>
@@ -11836,25 +11836,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.00142958637811442</v>
+        <v>0.001408675855503035</v>
       </c>
       <c r="C166">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D166">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="E166">
-        <v>0.08</v>
+        <v>0.97</v>
       </c>
       <c r="F166">
-        <v>0.92</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>43</v>
+        <v>456</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>444</v>
@@ -11886,25 +11886,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.00142914093765126</v>
+        <v>0.001395950555739722</v>
       </c>
       <c r="C167">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E167">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F167">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>1049</v>
+        <v>357</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>445</v>
@@ -11936,13 +11936,13 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001391351799260285</v>
+        <v>0.00138274825849542</v>
       </c>
       <c r="C168">
         <v>3</v>
       </c>
       <c r="D168">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E168">
         <v>0.97</v>
@@ -11954,7 +11954,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>456</v>
+        <v>14</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>446</v>
@@ -11986,25 +11986,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.001378782996683989</v>
+        <v>0.001331913130913038</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D169">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E169">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F169">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>447</v>
@@ -12036,25 +12036,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.001365743062796098</v>
+        <v>0.001272221150939253</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E170">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F170">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>448</v>
@@ -12086,25 +12086,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.001315533111407305</v>
+        <v>0.001214744006874351</v>
       </c>
       <c r="C171">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D171">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E171">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F171">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>317</v>
+        <v>136</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>449</v>
@@ -12136,25 +12136,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.001256575230207391</v>
+        <v>0.001195849154363541</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D172">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E172">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F172">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>15</v>
+        <v>261</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>450</v>
@@ -12186,25 +12186,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.001199804946611889</v>
+        <v>0.00118302229857155</v>
       </c>
       <c r="C173">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D173">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E173">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F173">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>451</v>
@@ -12236,28 +12236,28 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.001181142465151038</v>
+        <v>0.001163655203005033</v>
       </c>
       <c r="C174">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D174">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E174">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F174">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>261</v>
+        <v>29</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K174">
         <v>0.001140267039290133</v>
@@ -12286,28 +12286,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.001168473355493682</v>
+        <v>0.001137286185538438</v>
       </c>
       <c r="C175">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E175">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F175">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K175">
         <v>0.001133559907131749</v>
@@ -12336,28 +12336,28 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.001149344438676053</v>
+        <v>0.001116400601200952</v>
       </c>
       <c r="C176">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="E176">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F176">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K176">
         <v>0.001123621679805055</v>
@@ -12386,28 +12386,28 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.001123299710392007</v>
+        <v>0.001097446800356987</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="E177">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F177">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K177">
         <v>0.001086221275338243</v>
@@ -12436,28 +12436,28 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.001102670979351404</v>
+        <v>0.001077165348424404</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D178">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="E178">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F178">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K178">
         <v>0.001050439148989555</v>
@@ -12486,25 +12486,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.001083950274510719</v>
+        <v>0.001019789555375599</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E179">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F179">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>452</v>
@@ -12536,25 +12536,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.00106391824618584</v>
+        <v>0.001012264906200614</v>
       </c>
       <c r="C180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E180">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F180">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>453</v>
@@ -12586,13 +12586,13 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.001007248067180086</v>
+        <v>0.001011472986577916</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E181">
         <v>0.99</v>
@@ -12604,7 +12604,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>87</v>
+        <v>238</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>454</v>
@@ -12636,13 +12636,13 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0009998159569983723</v>
+        <v>0.001003624555125686</v>
       </c>
       <c r="C182">
         <v>2</v>
       </c>
       <c r="D182">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E182">
         <v>0.96</v>
@@ -12654,7 +12654,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>455</v>
@@ -12686,25 +12686,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0009990337764934629</v>
+        <v>0.0009948114905321567</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E183">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F183">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>456</v>
@@ -12736,13 +12736,13 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0009912818659458583</v>
+        <v>0.0009277004360727001</v>
       </c>
       <c r="C184">
         <v>2</v>
       </c>
       <c r="D184">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E184">
         <v>0.96</v>
@@ -12754,7 +12754,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>457</v>
@@ -12786,25 +12786,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0009825771854252814</v>
+        <v>0.0008489482943948864</v>
       </c>
       <c r="C185">
         <v>2</v>
       </c>
       <c r="D185">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E185">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F185">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>458</v>
@@ -12836,25 +12836,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0009162914703634043</v>
+        <v>0.0007857826634924949</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E186">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F186">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>113</v>
+        <v>247</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>459</v>
@@ -12886,25 +12886,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0008385078315007228</v>
+        <v>0.0007760120745239044</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E187">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F187">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>460</v>
@@ -12936,25 +12936,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0007761190187272764</v>
+        <v>0.0007689804046698393</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E188">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F188">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>247</v>
+        <v>101</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>461</v>
@@ -12986,25 +12986,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0007664685895755488</v>
+        <v>0.000754249250938657</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E189">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F189">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>462</v>
@@ -13036,25 +13036,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.000759523395998873</v>
+        <v>0.0007472943395465648</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D190">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E190">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F190">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>463</v>
@@ -13086,13 +13086,13 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0007449734076754479</v>
+        <v>0.0007390564685786287</v>
       </c>
       <c r="C191">
         <v>2</v>
       </c>
       <c r="D191">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E191">
         <v>0.9399999999999999</v>
@@ -13104,7 +13104,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>464</v>
@@ -13136,25 +13136,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0007381040285764303</v>
+        <v>0.0007334173277991075</v>
       </c>
       <c r="C192">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E192">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F192">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>501</v>
+        <v>29</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>465</v>
@@ -13186,19 +13186,19 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.000729967467884674</v>
+        <v>0.0007307091692235501</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D193">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E193">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F193">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
@@ -13236,25 +13236,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0007243976779012523</v>
+        <v>0.0007096697286947046</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E194">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F194">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>29</v>
+        <v>333</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>467</v>
@@ -13286,25 +13286,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0007217228245685539</v>
+        <v>0.0007071751890718894</v>
       </c>
       <c r="C195">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E195">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F195">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>468</v>
@@ -13336,25 +13336,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0007009421294775705</v>
+        <v>0.0007071751890718894</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E196">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F196">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>333</v>
+        <v>68</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>469</v>
@@ -13386,25 +13386,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0006984782679873836</v>
+        <v>0.0006559832692567234</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E197">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F197">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>470</v>
@@ -13436,25 +13436,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0006984782679873836</v>
+        <v>0.0006559832692567234</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E198">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F198">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>471</v>
@@ -13486,7 +13486,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0006479159122373556</v>
+        <v>0.0006559832692567234</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -13504,7 +13504,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>472</v>
@@ -13536,25 +13536,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0006479159122373556</v>
+        <v>0.0006411330851718765</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D200">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E200">
-        <v>0.96</v>
+        <v>0.14</v>
       </c>
       <c r="F200">
-        <v>0.04000000000000004</v>
+        <v>0.86</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>473</v>
@@ -13586,25 +13586,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0006479159122373556</v>
+        <v>0.0006365050424540935</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E201">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F201">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>474</v>
@@ -13636,25 +13636,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.000633248357409123</v>
+        <v>0.0006253338737594672</v>
       </c>
       <c r="C202">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E202">
-        <v>0.14</v>
+        <v>0.95</v>
       </c>
       <c r="F202">
-        <v>0.86</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>475</v>
@@ -13686,25 +13686,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0006286772308882235</v>
+        <v>0.0006119359097735955</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D203">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E203">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="F203">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>476</v>
@@ -13736,13 +13736,13 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0006176434464995799</v>
+        <v>0.0006088559887852935</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E204">
         <v>0.95</v>
@@ -13754,7 +13754,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>477</v>
@@ -13786,25 +13786,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.00060441025220201</v>
+        <v>0.0006088559887852935</v>
       </c>
       <c r="C205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E205">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F205">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>478</v>
@@ -13836,13 +13836,13 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0006013682084330953</v>
+        <v>0.0005915111492857749</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E206">
         <v>0.95</v>
@@ -13854,7 +13854,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>479</v>
@@ -13886,25 +13886,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0006013682084330953</v>
+        <v>0.000573212289806023</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E207">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F207">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>480</v>
@@ -13936,25 +13936,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0005842366777468409</v>
+        <v>0.000573212289806023</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E208">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F208">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>481</v>
@@ -13986,7 +13986,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0005661628597268165</v>
+        <v>0.000573212289806023</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -14004,7 +14004,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>482</v>
@@ -14036,7 +14036,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0005661628597268165</v>
+        <v>0.000573212289806023</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -14054,7 +14054,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>483</v>
@@ -14086,7 +14086,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0005661628597268165</v>
+        <v>0.000573212289806023</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -14104,7 +14104,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>484</v>
@@ -14136,13 +14136,13 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0005661628597268165</v>
+        <v>0.0005538590066443982</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E212">
         <v>0.9399999999999999</v>
@@ -14154,7 +14154,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>485</v>
@@ -14186,13 +14186,13 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0005661628597268165</v>
+        <v>0.0005538590066443982</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E213">
         <v>0.9399999999999999</v>
@@ -14204,7 +14204,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>486</v>
@@ -14236,13 +14236,13 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0005470475854475504</v>
+        <v>0.0005333347600435985</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E214">
         <v>0.9399999999999999</v>
@@ -14254,7 +14254,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>487</v>
@@ -14286,13 +14286,13 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0005470475854475504</v>
+        <v>0.0005333347600435985</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E215">
         <v>0.9399999999999999</v>
@@ -14304,7 +14304,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>488</v>
@@ -14336,25 +14336,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0005267757483709598</v>
+        <v>0.0005315931204468097</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E216">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F216">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>489</v>
@@ -14386,25 +14386,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0005267757483709598</v>
+        <v>0.0005115033268067483</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E217">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F217">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>490</v>
@@ -14436,25 +14436,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0005250555276564578</v>
+        <v>0.0004882042619465255</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E218">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F218">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>491</v>
@@ -14486,13 +14486,13 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.000505212800588572</v>
+        <v>0.0004882042619465255</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E219">
         <v>0.93</v>
@@ -14504,7 +14504,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>492</v>
@@ -14536,25 +14536,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0004822002702838079</v>
+        <v>0.0004829201487101099</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E220">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F220">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>493</v>
@@ -14586,25 +14586,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0004822002702838079</v>
+        <v>0.0004632470420614223</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E221">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F221">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>494</v>
@@ -14636,25 +14636,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0004769811416742979</v>
+        <v>0.0004632470420614223</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E222">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F222">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>495</v>
@@ -14686,25 +14686,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0004575499771336688</v>
+        <v>0.0004568193685976243</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E223">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F223">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>496</v>
@@ -14736,25 +14736,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0004575499771336688</v>
+        <v>0.0004568193685976243</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E224">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F224">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>497</v>
@@ -14786,28 +14786,28 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0004512013519308045</v>
+        <v>0.0004364034504334058</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E225">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F225">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K225">
         <v>0.001002146447056161</v>
@@ -14836,28 +14836,28 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0004512013519308045</v>
+        <v>0.0004364034504334058</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E226">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F226">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K226">
         <v>0.0009429053791198841</v>
@@ -14886,7 +14886,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0004310365110553339</v>
+        <v>0.0004364034504334058</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14904,10 +14904,10 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K227">
         <v>0.0009344239550444285</v>
@@ -14936,7 +14936,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0004310365110553339</v>
+        <v>0.0004364034504334058</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14954,7 +14954,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>498</v>
@@ -14986,25 +14986,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0004310365110553339</v>
+        <v>0.0004294052593863893</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E229">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F229">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>499</v>
@@ -15036,25 +15036,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0004310365110553339</v>
+        <v>0.0004177061978199121</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D230">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E230">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F230">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>46</v>
+        <v>904</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>500</v>
@@ -15086,25 +15086,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0004241243845595215</v>
+        <v>0.0004073976287717633</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E231">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F231">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>501</v>
@@ -15136,25 +15136,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0004125691993857384</v>
+        <v>0.0004073976287717633</v>
       </c>
       <c r="C232">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E232">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F232">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>904</v>
+        <v>52</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>502</v>
@@ -15186,7 +15186,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0004023874062947942</v>
+        <v>0.0004073976287717633</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -15204,7 +15204,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>503</v>
@@ -15236,7 +15236,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0004023874062947942</v>
+        <v>0.0004073976287717633</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -15254,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>504</v>
@@ -15286,25 +15286,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0004023874062947942</v>
+        <v>0.0003758931003000562</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E235">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F235">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>505</v>
@@ -15336,25 +15336,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0004023874062947942</v>
+        <v>0.0003758931003000562</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E236">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F236">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>506</v>
@@ -15386,25 +15386,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0003712703241053621</v>
+        <v>0.0003414761119245351</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E237">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F237">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>507</v>
@@ -15436,25 +15436,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0003712703241053621</v>
+        <v>0.0003414761119245351</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E238">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F238">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>508</v>
@@ -15486,7 +15486,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0003372765997759978</v>
+        <v>0.0003414761119245351</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15504,7 +15504,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>509</v>
@@ -15536,7 +15536,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0003372765997759978</v>
+        <v>0.0003414761119245351</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15554,7 +15554,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>510</v>
@@ -15586,25 +15586,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0003372765997759978</v>
+        <v>0.0003041152084533642</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E241">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F241">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>511</v>
@@ -15636,25 +15636,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0003372765997759978</v>
+        <v>0.0003036353707892843</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E242">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F242">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>512</v>
@@ -15686,25 +15686,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0003003751649544002</v>
+        <v>0.0003036353707892843</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E243">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F243">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>513</v>
@@ -15736,7 +15736,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0002999012283886087</v>
+        <v>0.0003036353707892843</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15754,7 +15754,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>514</v>
@@ -15786,7 +15786,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0002999012283886087</v>
+        <v>0.0003036353707892843</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15804,7 +15804,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>515</v>
@@ -15836,7 +15836,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0002999012283886087</v>
+        <v>0.0003036353707892843</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15854,7 +15854,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>516</v>
@@ -15886,25 +15886,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0002999012283886087</v>
+        <v>0.0002617414859812409</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E247">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F247">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>20</v>
+        <v>286</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>517</v>
@@ -15936,25 +15936,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0002999012283886087</v>
+        <v>0.0002617414859812409</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E248">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F248">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>518</v>
@@ -15986,7 +15986,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0002585225593513238</v>
+        <v>0.0002617414859812409</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -16004,7 +16004,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>286</v>
+        <v>88</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>519</v>
@@ -16036,7 +16036,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0002585225593513238</v>
+        <v>0.0002617414859812409</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -16054,7 +16054,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>520</v>
@@ -16086,25 +16086,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0002585225593513238</v>
+        <v>0.0002150419261593343</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E251">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F251">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>521</v>
@@ -16136,25 +16136,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0002585225593513238</v>
+        <v>0.0002150419261593343</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E252">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F252">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>522</v>
@@ -16186,7 +16186,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0002123973160392842</v>
+        <v>0.0002150419261593343</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -16204,7 +16204,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>523</v>
@@ -16236,7 +16236,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0002123973160392842</v>
+        <v>0.0002150419261593343</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -16254,7 +16254,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>524</v>
@@ -16286,25 +16286,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0002123973160392842</v>
+        <v>0.0001627370020389482</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E255">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F255">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>525</v>
@@ -16336,25 +16336,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0002123973160392842</v>
+        <v>0.0001627370020389482</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E256">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F256">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>526</v>
@@ -16386,7 +16386,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.0001607356438378506</v>
+        <v>0.0001627370020389482</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16404,7 +16404,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>527</v>
@@ -16436,7 +16436,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0001607356438378506</v>
+        <v>0.0001627370020389482</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16454,7 +16454,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>528</v>
@@ -16486,7 +16486,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.0001607356438378506</v>
+        <v>0.0001627370020389482</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16504,7 +16504,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>529</v>
@@ -16536,7 +16536,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0001607356438378506</v>
+        <v>0.0001627370020389482</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16554,7 +16554,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>530</v>
@@ -16586,7 +16586,7 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.0001607356438378506</v>
+        <v>0.0001627370020389482</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -16604,7 +16604,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>531</v>
@@ -16636,7 +16636,7 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.0001607356438378506</v>
+        <v>0.0001627370020389482</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -16654,7 +16654,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>532</v>
@@ -16686,7 +16686,7 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.0001607356438378506</v>
+        <v>0.0001627370020389482</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -16704,7 +16704,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>533</v>
@@ -16736,25 +16736,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.0001607356438378506</v>
+        <v>0.0001476814425110541</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D264">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E264">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F264">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>534</v>
@@ -16786,25 +16786,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.0001607356438378506</v>
+        <v>0.000104426549454978</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E265">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F265">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>535</v>
@@ -16836,13 +16836,13 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.0001458652392971796</v>
+        <v>0.000104426549454978</v>
       </c>
       <c r="C266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D266">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E266">
         <v>0.75</v>
@@ -16854,7 +16854,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>536</v>
@@ -16886,7 +16886,7 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.0001031422998464346</v>
+        <v>0.000104426549454978</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -16904,7 +16904,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>537</v>
@@ -16936,7 +16936,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.0001031422998464346</v>
+        <v>0.000104426549454978</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -16954,7 +16954,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>538</v>
@@ -16986,7 +16986,7 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.0001031422998464346</v>
+        <v>0.000104426549454978</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -17004,7 +17004,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>539</v>
@@ -17036,7 +17036,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.0001031422998464346</v>
+        <v>0.000104426549454978</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -17054,7 +17054,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>540</v>
@@ -17086,7 +17086,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.0001031422998464346</v>
+        <v>0.000104426549454978</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -17104,7 +17104,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>541</v>
@@ -17136,7 +17136,7 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.0001031422998464346</v>
+        <v>0.000104426549454978</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -17154,7 +17154,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>542</v>
@@ -17186,7 +17186,7 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.0001031422998464346</v>
+        <v>0.000104426549454978</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -17204,7 +17204,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>543</v>
@@ -17236,25 +17236,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.0001031422998464346</v>
+        <v>0.0001038887035135271</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D274">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E274">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F274">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>544</v>
@@ -17286,25 +17286,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.0001031422998464346</v>
+        <v>0.0001038887035135271</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D275">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E275">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F275">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>545</v>
@@ -17336,25 +17336,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.0001026110683956795</v>
+        <v>7.361993606508204E-05</v>
       </c>
       <c r="C276">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D276">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E276">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F276">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>546</v>
@@ -17386,25 +17386,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.0001026110683956795</v>
+        <v>6.01104260852576E-05</v>
       </c>
       <c r="C277">
         <v>2</v>
       </c>
       <c r="D277">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E277">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="F277">
-        <v>0.29</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>547</v>
@@ -17436,25 +17436,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>7.271454969958373E-05</v>
+        <v>6.01104260852576E-05</v>
       </c>
       <c r="C278">
+        <v>2</v>
+      </c>
+      <c r="D278">
         <v>3</v>
       </c>
-      <c r="D278">
-        <v>9</v>
-      </c>
       <c r="E278">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="F278">
-        <v>0.33</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>548</v>
@@ -17486,25 +17486,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>5.937118121340964E-05</v>
+        <v>6.011042608525666E-05</v>
       </c>
       <c r="C279">
         <v>2</v>
       </c>
       <c r="D279">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E279">
+        <v>0.67</v>
+      </c>
+      <c r="F279">
         <v>0.33</v>
       </c>
-      <c r="F279">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>549</v>
@@ -17536,25 +17536,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>5.937118121340964E-05</v>
+        <v>4.250448990489771E-05</v>
       </c>
       <c r="C280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D280">
         <v>3</v>
       </c>
       <c r="E280">
+        <v>0.67</v>
+      </c>
+      <c r="F280">
         <v>0.33</v>
       </c>
-      <c r="F280">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>550</v>
@@ -17586,13 +17586,13 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>5.937118121340871E-05</v>
+        <v>4.250448990489771E-05</v>
       </c>
       <c r="C281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D281">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E281">
         <v>0.67</v>
@@ -17604,7 +17604,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>551</v>
@@ -17636,7 +17636,7 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>4.198176484305665E-05</v>
+        <v>4.250448990489771E-05</v>
       </c>
       <c r="C282">
         <v>1</v>
@@ -17654,7 +17654,7 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>552</v>
@@ -17686,7 +17686,7 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>4.198176484305665E-05</v>
+        <v>4.250448990489771E-05</v>
       </c>
       <c r="C283">
         <v>1</v>
@@ -17704,7 +17704,7 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>553</v>
@@ -17736,7 +17736,7 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>4.198176484305665E-05</v>
+        <v>4.250448990489771E-05</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -17754,7 +17754,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>554</v>
@@ -17786,7 +17786,7 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>4.198176484305665E-05</v>
+        <v>4.250448990489771E-05</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -17804,7 +17804,7 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>555</v>
@@ -17836,7 +17836,7 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>4.198176484305665E-05</v>
+        <v>4.250448990489771E-05</v>
       </c>
       <c r="C286">
         <v>1</v>
@@ -17854,7 +17854,7 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>556</v>
@@ -17886,7 +17886,7 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>4.198176484305665E-05</v>
+        <v>4.250448990489771E-05</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -17904,7 +17904,7 @@
         <v>1</v>
       </c>
       <c r="H287">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>557</v>
@@ -17936,7 +17936,7 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>4.198176484305665E-05</v>
+        <v>4.250448990489771E-05</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -17954,10 +17954,10 @@
         <v>1</v>
       </c>
       <c r="H288">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K288">
         <v>0.0007945205092783744</v>
@@ -17986,7 +17986,7 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>4.198176484305665E-05</v>
+        <v>4.250448990489771E-05</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -18004,10 +18004,10 @@
         <v>1</v>
       </c>
       <c r="H289">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K289">
         <v>0.0007945205092783744</v>
@@ -18036,28 +18036,28 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>4.198176484305665E-05</v>
+        <v>2.077121375424634E-05</v>
       </c>
       <c r="C290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D290">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E290">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F290">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K290">
         <v>0.0007945205092783744</v>
@@ -18086,28 +18086,28 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>4.198176484305665E-05</v>
+        <v>2.077121375424634E-05</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D291">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E291">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F291">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K291">
         <v>0.0007817756354326794</v>
@@ -18136,28 +18136,28 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>2.051576699983296E-05</v>
+        <v>0</v>
       </c>
       <c r="C292">
         <v>2</v>
       </c>
       <c r="D292">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E292">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F292">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K292">
         <v>0.000754330253472572</v>
@@ -18186,25 +18186,25 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>2.051576699983296E-05</v>
+        <v>0</v>
       </c>
       <c r="C293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D293">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E293">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F293">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>558</v>
@@ -18239,10 +18239,10 @@
         <v>0</v>
       </c>
       <c r="C294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D294">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E294">
         <v>0.5</v>
@@ -18254,7 +18254,7 @@
         <v>1</v>
       </c>
       <c r="H294">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>559</v>
@@ -18289,10 +18289,10 @@
         <v>0</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D295">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E295">
         <v>0.5</v>
@@ -18304,7 +18304,7 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>560</v>
@@ -18354,7 +18354,7 @@
         <v>1</v>
       </c>
       <c r="H296">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>561</v>
@@ -18389,10 +18389,10 @@
         <v>0</v>
       </c>
       <c r="C297">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D297">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E297">
         <v>0.5</v>
@@ -18404,7 +18404,7 @@
         <v>1</v>
       </c>
       <c r="H297">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>562</v>
@@ -18454,7 +18454,7 @@
         <v>1</v>
       </c>
       <c r="H298">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>563</v>
@@ -18504,7 +18504,7 @@
         <v>1</v>
       </c>
       <c r="H299">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>564</v>
@@ -18604,7 +18604,7 @@
         <v>1</v>
       </c>
       <c r="H301">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>566</v>
@@ -18654,7 +18654,7 @@
         <v>1</v>
       </c>
       <c r="H302">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>567</v>
@@ -18704,7 +18704,7 @@
         <v>1</v>
       </c>
       <c r="H303">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>568</v>
@@ -18732,30 +18732,6 @@
       </c>
     </row>
     <row r="304" spans="1:17">
-      <c r="A304" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B304">
-        <v>0</v>
-      </c>
-      <c r="C304">
-        <v>1</v>
-      </c>
-      <c r="D304">
-        <v>2</v>
-      </c>
-      <c r="E304">
-        <v>0.5</v>
-      </c>
-      <c r="F304">
-        <v>0.5</v>
-      </c>
-      <c r="G304" t="b">
-        <v>1</v>
-      </c>
-      <c r="H304">
-        <v>89</v>
-      </c>
       <c r="J304" s="1" t="s">
         <v>569</v>
       </c>
@@ -18781,31 +18757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:17">
-      <c r="A305" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B305">
-        <v>0</v>
-      </c>
-      <c r="C305">
-        <v>1</v>
-      </c>
-      <c r="D305">
-        <v>2</v>
-      </c>
-      <c r="E305">
-        <v>0.5</v>
-      </c>
-      <c r="F305">
-        <v>0.5</v>
-      </c>
-      <c r="G305" t="b">
-        <v>1</v>
-      </c>
-      <c r="H305">
-        <v>27</v>
-      </c>
+    <row r="305" spans="10:17">
       <c r="J305" s="1" t="s">
         <v>570</v>
       </c>
@@ -18831,7 +18783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="10:17">
       <c r="J306" s="1" t="s">
         <v>571</v>
       </c>
@@ -18857,7 +18809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="10:17">
       <c r="J307" s="1" t="s">
         <v>572</v>
       </c>
@@ -18883,7 +18835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
         <v>573</v>
       </c>
@@ -18909,7 +18861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="10:17">
       <c r="J309" s="1" t="s">
         <v>574</v>
       </c>
@@ -18935,7 +18887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
         <v>575</v>
       </c>
@@ -18961,7 +18913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="10:17">
       <c r="J311" s="1" t="s">
         <v>576</v>
       </c>
@@ -18987,7 +18939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
         <v>577</v>
       </c>
@@ -19013,7 +18965,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="10:17">
       <c r="J313" s="1" t="s">
         <v>578</v>
       </c>
@@ -19039,7 +18991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="10:17">
       <c r="J314" s="1" t="s">
         <v>579</v>
       </c>
@@ -19065,7 +19017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="10:17">
       <c r="J315" s="1" t="s">
         <v>580</v>
       </c>
@@ -19091,7 +19043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:17">
+    <row r="316" spans="10:17">
       <c r="J316" s="1" t="s">
         <v>581</v>
       </c>
@@ -19117,7 +19069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="10:17">
       <c r="J317" s="1" t="s">
         <v>582</v>
       </c>
@@ -19143,7 +19095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="10:17">
       <c r="J318" s="1" t="s">
         <v>583</v>
       </c>
@@ -19169,7 +19121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="10:17">
       <c r="J319" s="1" t="s">
         <v>584</v>
       </c>
@@ -19195,7 +19147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="10:17">
       <c r="J320" s="1" t="s">
         <v>585</v>
       </c>
@@ -22551,7 +22503,7 @@
     </row>
     <row r="449" spans="10:17">
       <c r="J449" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K449">
         <v>0.0007267125036106957</v>
@@ -22577,7 +22529,7 @@
     </row>
     <row r="450" spans="10:17">
       <c r="J450" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K450">
         <v>0.0007221509077037687</v>
@@ -22603,7 +22555,7 @@
     </row>
     <row r="451" spans="10:17">
       <c r="J451" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K451">
         <v>0.0006853183989879239</v>
@@ -22629,7 +22581,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K452">
         <v>0.0006853183989879239</v>
@@ -22655,7 +22607,7 @@
     </row>
     <row r="453" spans="10:17">
       <c r="J453" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K453">
         <v>0.0006709573403367339</v>
@@ -22681,7 +22633,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K454">
         <v>0.0006709573403367339</v>
@@ -22707,7 +22659,7 @@
     </row>
     <row r="455" spans="10:17">
       <c r="J455" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K455">
         <v>0.0006480375874271809</v>
@@ -22733,7 +22685,7 @@
     </row>
     <row r="456" spans="10:17">
       <c r="J456" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K456">
         <v>0.0006102966174175474</v>
@@ -22759,7 +22711,7 @@
     </row>
     <row r="457" spans="10:17">
       <c r="J457" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K457">
         <v>0.0006102966174175474</v>
@@ -22785,7 +22737,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K458">
         <v>0.0006102966174175474</v>
@@ -22811,7 +22763,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K459">
         <v>0.0006102966174175474</v>
@@ -22837,7 +22789,7 @@
     </row>
     <row r="460" spans="10:17">
       <c r="J460" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K460">
         <v>0.0006102966174175474</v>
@@ -22863,7 +22815,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K461">
         <v>0.00057208455474259</v>
@@ -22889,7 +22841,7 @@
     </row>
     <row r="462" spans="10:17">
       <c r="J462" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K462">
         <v>0.00057208455474259</v>
@@ -22915,7 +22867,7 @@
     </row>
     <row r="463" spans="10:17">
       <c r="J463" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K463">
         <v>0.0005573805088201693</v>
@@ -22941,7 +22893,7 @@
     </row>
     <row r="464" spans="10:17">
       <c r="J464" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K464">
         <v>0.0005389394849645247</v>
@@ -22967,7 +22919,7 @@
     </row>
     <row r="465" spans="10:17">
       <c r="J465" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K465">
         <v>0.000533392037484623</v>
@@ -22993,7 +22945,7 @@
     </row>
     <row r="466" spans="10:17">
       <c r="J466" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K466">
         <v>0.000533392037484623</v>
@@ -23019,7 +22971,7 @@
     </row>
     <row r="467" spans="10:17">
       <c r="J467" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K467">
         <v>0.0005201784571405185</v>
@@ -32639,7 +32591,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K837">
         <v>0.0004942122312266376</v>
@@ -32665,7 +32617,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K838">
         <v>0.0004561590812806162</v>
@@ -32691,7 +32643,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K839">
         <v>0.000454542243897658</v>
@@ -32717,7 +32669,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K840">
         <v>0.000454542243897658</v>
@@ -32743,7 +32695,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K841">
         <v>0.0004143852486595533</v>
@@ -32769,7 +32721,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K842">
         <v>0.0004143852486595533</v>
@@ -32795,7 +32747,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K843">
         <v>0.000411814482521758</v>
@@ -32821,7 +32773,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K844">
         <v>0.0003737537228688092</v>
@@ -32847,7 +32799,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K845">
         <v>0.0003737537228688092</v>
@@ -32873,7 +32825,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K846">
         <v>0.0003737537228688092</v>
@@ -32899,7 +32851,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K847">
         <v>0.0003737537228688092</v>
@@ -32925,7 +32877,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K848">
         <v>0.0003527128873991641</v>
@@ -32951,7 +32903,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K849">
         <v>0.0003326744946826185</v>
@@ -32977,7 +32929,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K850">
         <v>0.0003326744946826185</v>
@@ -33003,7 +32955,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K851">
         <v>0.0003326744946826185</v>
@@ -33029,7 +32981,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K852">
         <v>0.0003326744946826185</v>
@@ -33055,7 +33007,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K853">
         <v>0.0003230547640259347</v>
@@ -33081,7 +33033,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K854">
         <v>0.0003230547640259347</v>
@@ -33107,7 +33059,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K855">
         <v>0.000293371139957011</v>
@@ -33133,7 +33085,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K856">
         <v>0.0002911968131819641</v>
@@ -33159,7 +33111,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K857">
         <v>0.0002911968131819641</v>
@@ -33185,7 +33137,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K858">
         <v>0.0002494056744918362</v>
@@ -33211,7 +33163,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K859">
         <v>0.0002494056744918362</v>
@@ -33237,7 +33189,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K860">
         <v>0.0002494056744918362</v>
@@ -33263,7 +33215,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K861">
         <v>0.0002494056744918362</v>
@@ -33289,7 +33241,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K862">
         <v>0.0002074447224680306</v>
@@ -33315,7 +33267,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K863">
         <v>0.0002074447224680306</v>
@@ -33341,7 +33293,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K864">
         <v>0.0002074447224680306</v>
@@ -33367,7 +33319,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K865">
         <v>0.0002074447224680306</v>
@@ -33393,7 +33345,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K866">
         <v>0.0002074447224680306</v>
@@ -33419,7 +33371,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K867">
         <v>0.0001868239523775413</v>
@@ -33445,7 +33397,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K868">
         <v>0.0001755998539714423</v>
@@ -33471,7 +33423,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K869">
         <v>0.0001655576289096922</v>
@@ -33497,7 +33449,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K870">
         <v>0.0001655576289096922</v>
@@ -33523,7 +33475,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K871">
         <v>0.0001655576289096922</v>
@@ -33549,7 +33501,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K872">
         <v>0.0001655576289096922</v>
@@ -33575,7 +33527,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K873">
         <v>0.0001241678475185743</v>
@@ -33601,7 +33553,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K874">
         <v>0.0001241678475185743</v>
@@ -33627,7 +33579,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K875">
         <v>0.0001241678475185743</v>
@@ -33653,7 +33605,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K876">
         <v>0.0001241678475185743</v>
@@ -33679,7 +33631,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K877">
         <v>0.0001126909875231195</v>
@@ -33705,7 +33657,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K878">
         <v>8.404605164376205E-05</v>
@@ -33731,7 +33683,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K879">
         <v>8.404605164376205E-05</v>
@@ -33757,7 +33709,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K880">
         <v>8.404605164376205E-05</v>
@@ -33783,7 +33735,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K881">
         <v>8.404605164376205E-05</v>
@@ -33809,7 +33761,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K882">
         <v>8.404605164376205E-05</v>
@@ -33835,7 +33787,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K883">
         <v>8.404605164376205E-05</v>
@@ -33861,7 +33813,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K884">
         <v>8.404605164376205E-05</v>
@@ -33887,7 +33839,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K885">
         <v>8.404605164376205E-05</v>
@@ -33913,7 +33865,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K886">
         <v>8.404605164376205E-05</v>
@@ -33939,7 +33891,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K887">
         <v>6.758861897563246E-05</v>
@@ -33965,7 +33917,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K888">
         <v>6.605224180711603E-05</v>
@@ -33991,7 +33943,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K889">
         <v>4.670598809438533E-05</v>
@@ -34017,7 +33969,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K890">
         <v>4.670598809438533E-05</v>
@@ -34043,7 +33995,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K891">
         <v>4.670598809438533E-05</v>
@@ -34069,7 +34021,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K892">
         <v>4.670598809438533E-05</v>
@@ -34095,7 +34047,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K893">
         <v>4.670598809438533E-05</v>
@@ -34121,7 +34073,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K894">
         <v>4.670598809438533E-05</v>
@@ -34147,7 +34099,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K895">
         <v>4.670598809438533E-05</v>
@@ -34173,7 +34125,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K896">
         <v>4.670598809438533E-05</v>
@@ -34199,7 +34151,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K897">
         <v>4.670598809438533E-05</v>
@@ -34225,7 +34177,7 @@
     </row>
     <row r="898" spans="10:17">
       <c r="J898" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K898">
         <v>4.241694048243621E-05</v>
@@ -34251,7 +34203,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K899">
         <v>4.241694048243621E-05</v>
@@ -34277,7 +34229,7 @@
     </row>
     <row r="900" spans="10:17">
       <c r="J900" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K900">
         <v>2.688508678817218E-05</v>
@@ -34303,7 +34255,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K901">
         <v>2.195158144048799E-05</v>
@@ -34329,7 +34281,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K902">
         <v>1.55221120943379E-05</v>
@@ -34355,7 +34307,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K903">
         <v>1.55221120943379E-05</v>
@@ -34381,7 +34333,7 @@
     </row>
     <row r="904" spans="10:17">
       <c r="J904" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K904">
         <v>1.55221120943379E-05</v>
@@ -34407,7 +34359,7 @@
     </row>
     <row r="905" spans="10:17">
       <c r="J905" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K905">
         <v>1.55221120943379E-05</v>
@@ -34433,7 +34385,7 @@
     </row>
     <row r="906" spans="10:17">
       <c r="J906" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K906">
         <v>1.55221120943379E-05</v>
@@ -34459,7 +34411,7 @@
     </row>
     <row r="907" spans="10:17">
       <c r="J907" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K907">
         <v>1.55221120943379E-05</v>
@@ -34485,7 +34437,7 @@
     </row>
     <row r="908" spans="10:17">
       <c r="J908" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K908">
         <v>1.55221120943379E-05</v>
@@ -34511,7 +34463,7 @@
     </row>
     <row r="909" spans="10:17">
       <c r="J909" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K909">
         <v>1.55221120943379E-05</v>
@@ -34537,7 +34489,7 @@
     </row>
     <row r="910" spans="10:17">
       <c r="J910" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K910">
         <v>1.55221120943379E-05</v>
@@ -34563,7 +34515,7 @@
     </row>
     <row r="911" spans="10:17">
       <c r="J911" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K911">
         <v>1.55221120943379E-05</v>
@@ -34589,7 +34541,7 @@
     </row>
     <row r="912" spans="10:17">
       <c r="J912" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K912">
         <v>1.097579072024388E-05</v>
@@ -34615,7 +34567,7 @@
     </row>
     <row r="913" spans="10:17">
       <c r="J913" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K913">
         <v>1.097579072024388E-05</v>
@@ -34641,7 +34593,7 @@
     </row>
     <row r="914" spans="10:17">
       <c r="J914" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K914">
         <v>6.569139939428387E-06</v>
@@ -34667,7 +34619,7 @@
     </row>
     <row r="915" spans="10:17">
       <c r="J915" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K915">
         <v>6.569139939428387E-06</v>
@@ -34693,7 +34645,7 @@
     </row>
     <row r="916" spans="10:17">
       <c r="J916" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K916">
         <v>0</v>
@@ -34719,7 +34671,7 @@
     </row>
     <row r="917" spans="10:17">
       <c r="J917" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K917">
         <v>0</v>
@@ -34745,7 +34697,7 @@
     </row>
     <row r="918" spans="10:17">
       <c r="J918" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K918">
         <v>0</v>
@@ -34771,7 +34723,7 @@
     </row>
     <row r="919" spans="10:17">
       <c r="J919" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K919">
         <v>0</v>
@@ -34797,7 +34749,7 @@
     </row>
     <row r="920" spans="10:17">
       <c r="J920" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K920">
         <v>0</v>
@@ -34823,7 +34775,7 @@
     </row>
     <row r="921" spans="10:17">
       <c r="J921" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K921">
         <v>0</v>
@@ -34849,7 +34801,7 @@
     </row>
     <row r="922" spans="10:17">
       <c r="J922" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K922">
         <v>0</v>
@@ -34875,7 +34827,7 @@
     </row>
     <row r="923" spans="10:17">
       <c r="J923" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K923">
         <v>0</v>
@@ -34901,7 +34853,7 @@
     </row>
     <row r="924" spans="10:17">
       <c r="J924" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K924">
         <v>0</v>
@@ -34927,7 +34879,7 @@
     </row>
     <row r="925" spans="10:17">
       <c r="J925" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K925">
         <v>0</v>
@@ -34953,7 +34905,7 @@
     </row>
     <row r="926" spans="10:17">
       <c r="J926" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K926">
         <v>0</v>
@@ -34979,7 +34931,7 @@
     </row>
     <row r="927" spans="10:17">
       <c r="J927" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K927">
         <v>0</v>
